--- a/Code/Results/Cases/Case_0_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_219/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0006188530812010207</v>
+        <v>0.2543679979581253</v>
       </c>
       <c r="D2">
-        <v>0.01797395584707928</v>
+        <v>0.1203927657961934</v>
       </c>
       <c r="E2">
-        <v>0.1409825575300694</v>
+        <v>0.1417083679642417</v>
       </c>
       <c r="F2">
-        <v>0.2254473213296322</v>
+        <v>1.225464199728314</v>
       </c>
       <c r="G2">
-        <v>0.2675843131378315</v>
+        <v>0.7347609656863057</v>
       </c>
       <c r="H2">
-        <v>0.1629093242390525</v>
+        <v>0.8372351477910271</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3631307187984163</v>
+        <v>0.2181232318074393</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4747585543313164</v>
+        <v>0.2282406447922511</v>
       </c>
       <c r="M2">
-        <v>32.76193126430962</v>
+        <v>11.06113479499805</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8616139962650209</v>
+        <v>3.149964013821844</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.004245719421886562</v>
+        <v>0.264913751971017</v>
       </c>
       <c r="D3">
-        <v>0.01951881935070077</v>
+        <v>0.1232911994105805</v>
       </c>
       <c r="E3">
-        <v>0.1207335240485463</v>
+        <v>0.1411351465171471</v>
       </c>
       <c r="F3">
-        <v>0.2125150306803647</v>
+        <v>1.263195159704452</v>
       </c>
       <c r="G3">
-        <v>0.2303361204212635</v>
+        <v>0.7561250787211264</v>
       </c>
       <c r="H3">
-        <v>0.1630601124381883</v>
+        <v>0.8566154120698855</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3066993129006619</v>
+        <v>0.2111458522780225</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4068427796543546</v>
+        <v>0.2138939518756047</v>
       </c>
       <c r="M3">
-        <v>28.07870612540893</v>
+        <v>9.740127417205997</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7820153581732967</v>
+        <v>3.235294182199283</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008149862681460895</v>
+        <v>0.2717416006280207</v>
       </c>
       <c r="D4">
-        <v>0.02085615333564306</v>
+        <v>0.1251729111397282</v>
       </c>
       <c r="E4">
-        <v>0.1097790470665885</v>
+        <v>0.1409471580577275</v>
       </c>
       <c r="F4">
-        <v>0.2115481618730328</v>
+        <v>1.287933956415817</v>
       </c>
       <c r="G4">
-        <v>0.2133939880499085</v>
+        <v>0.7703908290537953</v>
       </c>
       <c r="H4">
-        <v>0.1660184831171279</v>
+        <v>0.8693078194938977</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2751661270078927</v>
+        <v>0.207109829528747</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3674603387318882</v>
+        <v>0.2052145579937559</v>
       </c>
       <c r="M4">
-        <v>25.29543067272431</v>
+        <v>8.925350066039641</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7517024381793078</v>
+        <v>3.291765736595082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01009696904574575</v>
+        <v>0.2746116862619594</v>
       </c>
       <c r="D5">
-        <v>0.02148409665194606</v>
+        <v>0.1259652117347017</v>
       </c>
       <c r="E5">
-        <v>0.1056163105276653</v>
+        <v>0.1409111362799429</v>
       </c>
       <c r="F5">
-        <v>0.2126514725167539</v>
+        <v>1.298406112951742</v>
       </c>
       <c r="G5">
-        <v>0.2077536787413621</v>
+        <v>0.7764890881850306</v>
       </c>
       <c r="H5">
-        <v>0.1678481462441539</v>
+        <v>0.8746778109407529</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2629448405697588</v>
+        <v>0.2055261824246202</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3518729858668337</v>
+        <v>0.2017095315205637</v>
       </c>
       <c r="M5">
-        <v>24.1790166387072</v>
+        <v>8.592380070635841</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7433331713420728</v>
+        <v>3.315792328691956</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01044012672507755</v>
+        <v>0.2750935281950913</v>
       </c>
       <c r="D6">
-        <v>0.02159300503240758</v>
+        <v>0.1260983069565782</v>
       </c>
       <c r="E6">
-        <v>0.1049415140988188</v>
+        <v>0.1409075878195729</v>
       </c>
       <c r="F6">
-        <v>0.2129185260394522</v>
+        <v>1.300168488673581</v>
       </c>
       <c r="G6">
-        <v>0.2068875943394559</v>
+        <v>0.7775187914958153</v>
       </c>
       <c r="H6">
-        <v>0.168187166318674</v>
+        <v>0.8755813886836989</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2609495800814585</v>
+        <v>0.2052668698798925</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3493095226899072</v>
+        <v>0.2011294327255655</v>
       </c>
       <c r="M6">
-        <v>23.99457523827425</v>
+        <v>8.537033340657558</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7421664457887971</v>
+        <v>3.319842829363139</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008174757009138389</v>
+        <v>0.2717799539108192</v>
       </c>
       <c r="D7">
-        <v>0.02086430326372479</v>
+        <v>0.1251834934136689</v>
       </c>
       <c r="E7">
-        <v>0.1097217690187264</v>
+        <v>0.1409465087590434</v>
       </c>
       <c r="F7">
-        <v>0.2115572822839766</v>
+        <v>1.28807361058864</v>
       </c>
       <c r="G7">
-        <v>0.2133130731128432</v>
+        <v>0.7704719240267082</v>
       </c>
       <c r="H7">
-        <v>0.1660407462077558</v>
+        <v>0.8693794426196106</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2749989409207672</v>
+        <v>0.2070882263566745</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3672483957349044</v>
+        <v>0.2051671596696991</v>
       </c>
       <c r="M7">
-        <v>25.2803085790884</v>
+        <v>8.920863349580259</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7515742492886943</v>
+        <v>3.292085677330007</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001477086669393834</v>
+        <v>0.2579303589089825</v>
       </c>
       <c r="D8">
-        <v>0.01841589352931194</v>
+        <v>0.1213708558229918</v>
       </c>
       <c r="E8">
-        <v>0.1336460330330453</v>
+        <v>0.141476288942961</v>
       </c>
       <c r="F8">
-        <v>0.2193697171690943</v>
+        <v>1.238144980829873</v>
       </c>
       <c r="G8">
-        <v>0.2533592510106644</v>
+        <v>0.7418867053430134</v>
       </c>
       <c r="H8">
-        <v>0.1623022071717202</v>
+        <v>0.8437519255625645</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3429215388390929</v>
+        <v>0.2156651107155341</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4507775151587055</v>
+        <v>0.2232665864986387</v>
       </c>
       <c r="M8">
-        <v>31.12435394305555</v>
+        <v>10.60640150939537</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.829860012550796</v>
+        <v>3.17853238830665</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.005638118958195104</v>
+        <v>0.2336151136991784</v>
       </c>
       <c r="D9">
-        <v>0.01761686579109778</v>
+        <v>0.1147120679169333</v>
       </c>
       <c r="E9">
-        <v>0.1966502023224734</v>
+        <v>0.1438472777948689</v>
       </c>
       <c r="F9">
-        <v>0.3052412116294292</v>
+        <v>1.152900959937419</v>
       </c>
       <c r="G9">
-        <v>0.3923626199529764</v>
+        <v>0.695113425370991</v>
       </c>
       <c r="H9">
-        <v>0.1834026996260434</v>
+        <v>0.7998598359834688</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5104000797942518</v>
+        <v>0.2345177408085561</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.640511133406136</v>
+        <v>0.2598235240090361</v>
       </c>
       <c r="M9">
-        <v>43.64840650021642</v>
+        <v>13.88375980679825</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.171079606317392</v>
+        <v>2.988733909757343</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02756633460513136</v>
+        <v>0.2175463572684411</v>
       </c>
       <c r="D10">
-        <v>0.02143483861824791</v>
+        <v>0.110329477694826</v>
       </c>
       <c r="E10">
-        <v>0.2620190821775665</v>
+        <v>0.14644711647977</v>
       </c>
       <c r="F10">
-        <v>0.4422292757981552</v>
+        <v>1.098259465981968</v>
       </c>
       <c r="G10">
-        <v>0.5584848717551694</v>
+        <v>0.6666457784237991</v>
       </c>
       <c r="H10">
-        <v>0.2276920474573956</v>
+        <v>0.7715904057251493</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6746487164628263</v>
+        <v>0.2497052256671708</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.81179649363294</v>
+        <v>0.2873891985618968</v>
       </c>
       <c r="M10">
-        <v>54.19752661803795</v>
+        <v>16.27673002307228</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.617761656922681</v>
+        <v>2.870045084558967</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04501544055260709</v>
+        <v>0.2106398318066667</v>
       </c>
       <c r="D11">
-        <v>0.02494857357411817</v>
+        <v>0.1084488747237629</v>
       </c>
       <c r="E11">
-        <v>0.299733821726349</v>
+        <v>0.1478268348604317</v>
       </c>
       <c r="F11">
-        <v>0.5326912378149302</v>
+        <v>1.07519396195255</v>
       </c>
       <c r="G11">
-        <v>0.6585112966237148</v>
+        <v>0.6550275230294176</v>
       </c>
       <c r="H11">
-        <v>0.2585283672516709</v>
+        <v>0.7596151657865988</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7666906899918331</v>
+        <v>0.2569274584305958</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9033022398621</v>
+        <v>0.3000976987547119</v>
       </c>
       <c r="M11">
-        <v>59.57432834603503</v>
+        <v>17.36268695714216</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.895221661376269</v>
+        <v>2.820712792546033</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05321501617689695</v>
+        <v>0.2080836756379103</v>
       </c>
       <c r="D12">
-        <v>0.02666315581358347</v>
+        <v>0.10775321770506</v>
       </c>
       <c r="E12">
-        <v>0.3157586016845286</v>
+        <v>0.1483785626371628</v>
       </c>
       <c r="F12">
-        <v>0.5727997752537703</v>
+        <v>1.066722157217015</v>
       </c>
       <c r="G12">
-        <v>0.7014734887017227</v>
+        <v>0.6508238966680864</v>
       </c>
       <c r="H12">
-        <v>0.2723990079716714</v>
+        <v>0.7552094968481811</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8053350497774687</v>
+        <v>0.2597093706285989</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9409432721769946</v>
+        <v>0.3049356005263348</v>
       </c>
       <c r="M12">
-        <v>61.7373458972416</v>
+        <v>17.77358224885535</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.015670173514167</v>
+        <v>2.80271516835839</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05136622238466249</v>
+        <v>0.2086315373156165</v>
       </c>
       <c r="D13">
-        <v>0.02627378009750103</v>
+        <v>0.1079023029251687</v>
       </c>
       <c r="E13">
-        <v>0.3122158553441281</v>
+        <v>0.1482584216911036</v>
       </c>
       <c r="F13">
-        <v>0.5638598453580101</v>
+        <v>1.068534951733376</v>
       </c>
       <c r="G13">
-        <v>0.6919587016070778</v>
+        <v>0.651720436183794</v>
       </c>
       <c r="H13">
-        <v>0.2692991171502825</v>
+        <v>0.7561525647435445</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7968132364911327</v>
+        <v>0.2591081131475619</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9326792627507245</v>
+        <v>0.3038925188847088</v>
       </c>
       <c r="M13">
-        <v>61.26483047449716</v>
+        <v>17.68510266560077</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.988937522146159</v>
+        <v>2.806560667355711</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04565392594644191</v>
+        <v>0.2104283419113386</v>
       </c>
       <c r="D14">
-        <v>0.02508088491812899</v>
+        <v>0.108391310851772</v>
       </c>
       <c r="E14">
-        <v>0.3010123943686551</v>
+        <v>0.1478716339943702</v>
       </c>
       <c r="F14">
-        <v>0.535859241292151</v>
+        <v>1.074491689470776</v>
       </c>
       <c r="G14">
-        <v>0.6619314005631907</v>
+        <v>0.6546777352422311</v>
       </c>
       <c r="H14">
-        <v>0.2596203148826817</v>
+        <v>0.7592501106450698</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.769783434405042</v>
+        <v>0.2571553743478034</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9063306081238949</v>
+        <v>0.3004951981750992</v>
       </c>
       <c r="M14">
-        <v>59.74938083965122</v>
+        <v>17.3964979688871</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.904785243981564</v>
+        <v>2.819218342665692</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04238332889895169</v>
+        <v>0.2115366819537723</v>
       </c>
       <c r="D15">
-        <v>0.02440548301810352</v>
+        <v>0.108692996273291</v>
       </c>
       <c r="E15">
-        <v>0.2944013140818811</v>
+        <v>0.1476385539029863</v>
       </c>
       <c r="F15">
-        <v>0.5195428173183956</v>
+        <v>1.078174712396255</v>
       </c>
       <c r="G15">
-        <v>0.6442638341920315</v>
+        <v>0.6565148184352836</v>
       </c>
       <c r="H15">
-        <v>0.2540037357810405</v>
+        <v>0.7611643151192311</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7537735626534641</v>
+        <v>0.2559654470877746</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8906230598282292</v>
+        <v>0.2984175952995827</v>
       </c>
       <c r="M15">
-        <v>58.83944124752372</v>
+        <v>17.21967725761499</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.855431067618326</v>
+        <v>2.827060939022516</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02661378803541226</v>
+        <v>0.2180059319145133</v>
       </c>
       <c r="D16">
-        <v>0.02125019905685122</v>
+        <v>0.1104546739433943</v>
       </c>
       <c r="E16">
-        <v>0.2597577832906737</v>
+        <v>0.146360991517696</v>
       </c>
       <c r="F16">
-        <v>0.437015194118672</v>
+        <v>1.099803322401115</v>
       </c>
       <c r="G16">
-        <v>0.552554339226802</v>
+        <v>0.6674322363309955</v>
       </c>
       <c r="H16">
-        <v>0.2259398340668639</v>
+        <v>0.7723909777404572</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.66907575799803</v>
+        <v>0.2492397055779492</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8061643640346148</v>
+        <v>0.2865621643597365</v>
       </c>
       <c r="M16">
-        <v>53.8609346372362</v>
+        <v>16.20571111070853</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.601466273023988</v>
+        <v>2.873363971608768</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01913507521215485</v>
+        <v>0.2220787378908593</v>
       </c>
       <c r="D17">
-        <v>0.01983880959938489</v>
+        <v>0.1115645236992222</v>
       </c>
       <c r="E17">
-        <v>0.240870238401385</v>
+        <v>0.1456283577197226</v>
       </c>
       <c r="F17">
-        <v>0.3945885684458688</v>
+        <v>1.113534094591898</v>
       </c>
       <c r="G17">
-        <v>0.5034212640883737</v>
+        <v>0.6744739668517923</v>
       </c>
       <c r="H17">
-        <v>0.2118236416566219</v>
+        <v>0.7795060859307483</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6222556246624862</v>
+        <v>0.2451952941782025</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7583907774985192</v>
+        <v>0.2793332855356994</v>
       </c>
       <c r="M17">
-        <v>50.97858078098272</v>
+        <v>15.58303467738915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.467279586778886</v>
+        <v>2.902972325673801</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0154947715081819</v>
+        <v>0.2244591883632641</v>
       </c>
       <c r="D18">
-        <v>0.01918371419359488</v>
+        <v>0.1122135074801776</v>
       </c>
       <c r="E18">
-        <v>0.2307087256963882</v>
+        <v>0.1452254542252334</v>
       </c>
       <c r="F18">
-        <v>0.3726888598538309</v>
+        <v>1.121599961183563</v>
       </c>
       <c r="G18">
-        <v>0.4773364202109747</v>
+        <v>0.6786492715534962</v>
       </c>
       <c r="H18">
-        <v>0.2046574321203991</v>
+        <v>0.7836816630338177</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5968501794746714</v>
+        <v>0.2428984285612046</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7321066179421365</v>
+        <v>0.2751912299590202</v>
       </c>
       <c r="M18">
-        <v>49.37154474476102</v>
+        <v>15.22463842385133</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.396708750141926</v>
+        <v>2.920440064187545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01436455970116213</v>
+        <v>0.2252716374733446</v>
       </c>
       <c r="D19">
-        <v>0.01898606672176584</v>
+        <v>0.1124350606765958</v>
       </c>
       <c r="E19">
-        <v>0.2273759626166267</v>
+        <v>0.1450921859565923</v>
       </c>
       <c r="F19">
-        <v>0.3656640650784553</v>
+        <v>1.124359676848506</v>
       </c>
       <c r="G19">
-        <v>0.468843463878855</v>
+        <v>0.680084307708853</v>
       </c>
       <c r="H19">
-        <v>0.2023802107983386</v>
+        <v>0.7851096667319268</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5884821105938016</v>
+        <v>0.2421257365457024</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7233900139022893</v>
+        <v>0.2737914803823571</v>
       </c>
       <c r="M19">
-        <v>48.83520838286375</v>
+        <v>15.10324756344653</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.373845863460957</v>
+        <v>2.926429128266648</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01985995293994525</v>
+        <v>0.2216412516024544</v>
       </c>
       <c r="D20">
-        <v>0.01997214704704575</v>
+        <v>0.1114452767547363</v>
       </c>
       <c r="E20">
-        <v>0.242804975100313</v>
+        <v>0.1457044278448762</v>
       </c>
       <c r="F20">
-        <v>0.3988359854683665</v>
+        <v>1.112054976935561</v>
       </c>
       <c r="G20">
-        <v>0.5084178024478092</v>
+        <v>0.6737113845968423</v>
       </c>
       <c r="H20">
-        <v>0.2132240731004913</v>
+        <v>0.778740050746535</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6270749493065324</v>
+        <v>0.2456227749350717</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7633472120314764</v>
+        <v>0.2801011679217424</v>
       </c>
       <c r="M20">
-        <v>51.27991559934964</v>
+        <v>15.64934514350733</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.480853982077065</v>
+        <v>2.899775059452367</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04728272337078998</v>
+        <v>0.2098989605222439</v>
       </c>
       <c r="D21">
-        <v>0.02541938050282155</v>
+        <v>0.1082472280690823</v>
       </c>
       <c r="E21">
-        <v>0.3042490481453299</v>
+        <v>0.1479844412499602</v>
       </c>
       <c r="F21">
-        <v>0.5439047380254038</v>
+        <v>1.072734883788996</v>
       </c>
       <c r="G21">
-        <v>0.6705957263882283</v>
+        <v>0.6538037509078549</v>
       </c>
       <c r="H21">
-        <v>0.2623963925612856</v>
+        <v>0.7583367676183457</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7776051374046631</v>
+        <v>0.2577276491907128</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9139769251083578</v>
+        <v>0.301492372328994</v>
       </c>
       <c r="M21">
-        <v>60.19056419236443</v>
+        <v>17.48127683314266</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.92903312918358</v>
+        <v>2.815481820563832</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07504565245889694</v>
+        <v>0.2025703106068164</v>
       </c>
       <c r="D22">
-        <v>0.03136030379058141</v>
+        <v>0.1062533260714531</v>
       </c>
       <c r="E22">
-        <v>0.3552222098002176</v>
+        <v>0.1496455649023005</v>
       </c>
       <c r="F22">
-        <v>0.6747363243713451</v>
+        <v>1.048569963187688</v>
       </c>
       <c r="G22">
-        <v>0.8078720129690424</v>
+        <v>0.6419372503052472</v>
       </c>
       <c r="H22">
-        <v>0.3080066807569324</v>
+        <v>0.7457553963112815</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8995046056531351</v>
+        <v>0.265913872165001</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.030992059077462</v>
+        <v>0.3156218395873225</v>
       </c>
       <c r="M22">
-        <v>66.80193129468029</v>
+        <v>18.67663252436517</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.316530413914563</v>
+        <v>2.764381307020443</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05904780762170958</v>
+        <v>0.2064497179124736</v>
       </c>
       <c r="D23">
-        <v>0.02790112447000936</v>
+        <v>0.1073086284999931</v>
       </c>
       <c r="E23">
-        <v>0.3267016786495915</v>
+        <v>0.1487430273722978</v>
       </c>
       <c r="F23">
-        <v>0.6006535653036096</v>
+        <v>1.061325280012191</v>
       </c>
       <c r="G23">
-        <v>0.7309121642790473</v>
+        <v>0.6481644359218848</v>
       </c>
       <c r="H23">
-        <v>0.2820839386304783</v>
+        <v>0.7524007507230124</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8315837476697538</v>
+        <v>0.2615188979006291</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9662729947101241</v>
+        <v>0.3080666130599639</v>
       </c>
       <c r="M23">
-        <v>63.17743703359156</v>
+        <v>18.038808568028</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.098572285123026</v>
+        <v>2.791285057404991</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01953021563342183</v>
+        <v>0.2218389179560081</v>
       </c>
       <c r="D24">
-        <v>0.01991138652217472</v>
+        <v>0.1114991543135133</v>
       </c>
       <c r="E24">
-        <v>0.2419281474899293</v>
+        <v>0.1456699796182974</v>
       </c>
       <c r="F24">
-        <v>0.3969080842729227</v>
+        <v>1.11272315109391</v>
       </c>
       <c r="G24">
-        <v>0.5061522344630021</v>
+        <v>0.6740557530419977</v>
       </c>
       <c r="H24">
-        <v>0.2125880239042885</v>
+        <v>0.7790861106191898</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6248915067048415</v>
+        <v>0.2454294228194982</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7611027946378357</v>
+        <v>0.2797539650174485</v>
       </c>
       <c r="M24">
-        <v>51.14352901381903</v>
+        <v>15.61936746602532</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.474696826073114</v>
+        <v>2.901219156883201</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.001987583681832827</v>
+        <v>0.2398822515964127</v>
       </c>
       <c r="D25">
-        <v>0.01724795993354533</v>
+        <v>0.1164247746180322</v>
       </c>
       <c r="E25">
-        <v>0.1771413672559845</v>
+        <v>0.1430586731072836</v>
       </c>
       <c r="F25">
-        <v>0.2719182514354515</v>
+        <v>1.174578481603895</v>
       </c>
       <c r="G25">
-        <v>0.3460472498148448</v>
+        <v>0.7067487000100101</v>
       </c>
       <c r="H25">
-        <v>0.1737041857220731</v>
+        <v>0.8110424122885433</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4597955165347969</v>
+        <v>0.2291902623309028</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5851209517250453</v>
+        <v>0.2498142609829159</v>
       </c>
       <c r="M25">
-        <v>40.09007713024914</v>
+        <v>12.99993745599107</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.051946387307652</v>
+        <v>3.036486409104583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_219/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2543679979581253</v>
+        <v>0.0006188530811153115</v>
       </c>
       <c r="D2">
-        <v>0.1203927657961934</v>
+        <v>0.01797395584718231</v>
       </c>
       <c r="E2">
-        <v>0.1417083679642417</v>
+        <v>0.1409825575301014</v>
       </c>
       <c r="F2">
-        <v>1.225464199728314</v>
+        <v>0.2254473213296322</v>
       </c>
       <c r="G2">
-        <v>0.7347609656863057</v>
+        <v>0.2675843131378315</v>
       </c>
       <c r="H2">
-        <v>0.8372351477910271</v>
+        <v>0.1629093242389388</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2181232318074393</v>
+        <v>0.3631307187984305</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2282406447922511</v>
+        <v>0.4747585543313448</v>
       </c>
       <c r="M2">
-        <v>11.06113479499805</v>
+        <v>32.7619312643094</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.149964013821844</v>
+        <v>0.8616139962649925</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.264913751971017</v>
+        <v>0.004245719421890115</v>
       </c>
       <c r="D3">
-        <v>0.1232911994105805</v>
+        <v>0.01951881935051603</v>
       </c>
       <c r="E3">
-        <v>0.1411351465171471</v>
+        <v>0.1207335240485463</v>
       </c>
       <c r="F3">
-        <v>1.263195159704452</v>
+        <v>0.212515030680386</v>
       </c>
       <c r="G3">
-        <v>0.7561250787211264</v>
+        <v>0.2303361204213061</v>
       </c>
       <c r="H3">
-        <v>0.8566154120698855</v>
+        <v>0.1630601124381883</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2111458522780225</v>
+        <v>0.3066993129006192</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2138939518756047</v>
+        <v>0.4068427796543261</v>
       </c>
       <c r="M3">
-        <v>9.740127417205997</v>
+        <v>28.07870612540921</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.235294182199283</v>
+        <v>0.7820153581732399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2717416006280207</v>
+        <v>0.008149862681007036</v>
       </c>
       <c r="D4">
-        <v>0.1251729111397282</v>
+        <v>0.02085615333552937</v>
       </c>
       <c r="E4">
-        <v>0.1409471580577275</v>
+        <v>0.1097790470666027</v>
       </c>
       <c r="F4">
-        <v>1.287933956415817</v>
+        <v>0.2115481618730328</v>
       </c>
       <c r="G4">
-        <v>0.7703908290537953</v>
+        <v>0.2133939880499014</v>
       </c>
       <c r="H4">
-        <v>0.8693078194938977</v>
+        <v>0.1660184831171279</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.207109829528747</v>
+        <v>0.2751661270079779</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2052145579937559</v>
+        <v>0.3674603387319024</v>
       </c>
       <c r="M4">
-        <v>8.925350066039641</v>
+        <v>25.29543067272425</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.291765736595082</v>
+        <v>0.7517024381792936</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2746116862619594</v>
+        <v>0.01009696904559299</v>
       </c>
       <c r="D5">
-        <v>0.1259652117347017</v>
+        <v>0.02148409665181461</v>
       </c>
       <c r="E5">
-        <v>0.1409111362799429</v>
+        <v>0.1056163105276759</v>
       </c>
       <c r="F5">
-        <v>1.298406112951742</v>
+        <v>0.2126514725167539</v>
       </c>
       <c r="G5">
-        <v>0.7764890881850306</v>
+        <v>0.2077536787413976</v>
       </c>
       <c r="H5">
-        <v>0.8746778109407529</v>
+        <v>0.1678481462440402</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2055261824246202</v>
+        <v>0.2629448405697872</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2017095315205637</v>
+        <v>0.3518729858667626</v>
       </c>
       <c r="M5">
-        <v>8.592380070635841</v>
+        <v>24.17901663870725</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.315792328691956</v>
+        <v>0.7433331713420728</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2750935281950913</v>
+        <v>0.01044012672485017</v>
       </c>
       <c r="D6">
-        <v>0.1260983069565782</v>
+        <v>0.02159300503237915</v>
       </c>
       <c r="E6">
-        <v>0.1409075878195729</v>
+        <v>0.1049415140988188</v>
       </c>
       <c r="F6">
-        <v>1.300168488673581</v>
+        <v>0.2129185260394522</v>
       </c>
       <c r="G6">
-        <v>0.7775187914958153</v>
+        <v>0.206887594339257</v>
       </c>
       <c r="H6">
-        <v>0.8755813886836989</v>
+        <v>0.1681871663187948</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2052668698798925</v>
+        <v>0.2609495800814585</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2011294327255655</v>
+        <v>0.3493095226898504</v>
       </c>
       <c r="M6">
-        <v>8.537033340657558</v>
+        <v>23.99457523827431</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.319842829363139</v>
+        <v>0.742166445788726</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2717799539108192</v>
+        <v>0.008174757009663303</v>
       </c>
       <c r="D7">
-        <v>0.1251834934136689</v>
+        <v>0.02086430326383137</v>
       </c>
       <c r="E7">
-        <v>0.1409465087590434</v>
+        <v>0.1097217690187406</v>
       </c>
       <c r="F7">
-        <v>1.28807361058864</v>
+        <v>0.2115572822839482</v>
       </c>
       <c r="G7">
-        <v>0.7704719240267082</v>
+        <v>0.2133130731128006</v>
       </c>
       <c r="H7">
-        <v>0.8693794426196106</v>
+        <v>0.1660407462076421</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2070882263566745</v>
+        <v>0.2749989409207814</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2051671596696991</v>
+        <v>0.3672483957348902</v>
       </c>
       <c r="M7">
-        <v>8.920863349580259</v>
+        <v>25.28030857908828</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.292085677330007</v>
+        <v>0.7515742492886943</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2579303589089825</v>
+        <v>0.001477086669394723</v>
       </c>
       <c r="D8">
-        <v>0.1213708558229918</v>
+        <v>0.01841589352927642</v>
       </c>
       <c r="E8">
-        <v>0.141476288942961</v>
+        <v>0.1336460330330738</v>
       </c>
       <c r="F8">
-        <v>1.238144980829873</v>
+        <v>0.2193697171690943</v>
       </c>
       <c r="G8">
-        <v>0.7418867053430134</v>
+        <v>0.2533592510106359</v>
       </c>
       <c r="H8">
-        <v>0.8437519255625645</v>
+        <v>0.1623022071717202</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2156651107155341</v>
+        <v>0.3429215388390929</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2232665864986387</v>
+        <v>0.4507775151586202</v>
       </c>
       <c r="M8">
-        <v>10.60640150939537</v>
+        <v>31.12435394305567</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.17853238830665</v>
+        <v>0.8298600125508244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2336151136991784</v>
+        <v>0.005638118958258498</v>
       </c>
       <c r="D9">
-        <v>0.1147120679169333</v>
+        <v>0.01761686579091304</v>
       </c>
       <c r="E9">
-        <v>0.1438472777948689</v>
+        <v>0.1966502023224805</v>
       </c>
       <c r="F9">
-        <v>1.152900959937419</v>
+        <v>0.3052412116294292</v>
       </c>
       <c r="G9">
-        <v>0.695113425370991</v>
+        <v>0.3923626199529764</v>
       </c>
       <c r="H9">
-        <v>0.7998598359834688</v>
+        <v>0.1834026996260434</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2345177408085561</v>
+        <v>0.5104000797941666</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2598235240090361</v>
+        <v>0.6405111334060507</v>
       </c>
       <c r="M9">
-        <v>13.88375980679825</v>
+        <v>43.64840650021631</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.988733909757343</v>
+        <v>1.17107960631742</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2175463572684411</v>
+        <v>0.02756633460513269</v>
       </c>
       <c r="D10">
-        <v>0.110329477694826</v>
+        <v>0.02143483861825146</v>
       </c>
       <c r="E10">
-        <v>0.14644711647977</v>
+        <v>0.2620190821775523</v>
       </c>
       <c r="F10">
-        <v>1.098259465981968</v>
+        <v>0.4422292757981552</v>
       </c>
       <c r="G10">
-        <v>0.6666457784237991</v>
+        <v>0.5584848717551694</v>
       </c>
       <c r="H10">
-        <v>0.7715904057251493</v>
+        <v>0.2276920474573956</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2497052256671708</v>
+        <v>0.6746487164628263</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2873891985618968</v>
+        <v>0.8117964936328548</v>
       </c>
       <c r="M10">
-        <v>16.27673002307228</v>
+        <v>54.19752661803784</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.870045084558967</v>
+        <v>1.617761656922625</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2106398318066667</v>
+        <v>0.04501544055242634</v>
       </c>
       <c r="D11">
-        <v>0.1084488747237629</v>
+        <v>0.02494857357391567</v>
       </c>
       <c r="E11">
-        <v>0.1478268348604317</v>
+        <v>0.2997338217263277</v>
       </c>
       <c r="F11">
-        <v>1.07519396195255</v>
+        <v>0.532691237814916</v>
       </c>
       <c r="G11">
-        <v>0.6550275230294176</v>
+        <v>0.6585112966236437</v>
       </c>
       <c r="H11">
-        <v>0.7596151657865988</v>
+        <v>0.2585283672516852</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2569274584305958</v>
+        <v>0.766690689991762</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3000976987547119</v>
+        <v>0.9033022398621711</v>
       </c>
       <c r="M11">
-        <v>17.36268695714216</v>
+        <v>59.57432834603497</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.820712792546033</v>
+        <v>1.895221661376269</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2080836756379103</v>
+        <v>0.05321501617668289</v>
       </c>
       <c r="D12">
-        <v>0.10775321770506</v>
+        <v>0.02666315581358703</v>
       </c>
       <c r="E12">
-        <v>0.1483785626371628</v>
+        <v>0.3157586016845499</v>
       </c>
       <c r="F12">
-        <v>1.066722157217015</v>
+        <v>0.5727997752537988</v>
       </c>
       <c r="G12">
-        <v>0.6508238966680864</v>
+        <v>0.7014734887017227</v>
       </c>
       <c r="H12">
-        <v>0.7552094968481811</v>
+        <v>0.2723990079716856</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2597093706285989</v>
+        <v>0.8053350497774687</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3049356005263348</v>
+        <v>0.9409432721769946</v>
       </c>
       <c r="M12">
-        <v>17.77358224885535</v>
+        <v>61.73734589724211</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.80271516835839</v>
+        <v>2.015670173514167</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2086315373156165</v>
+        <v>0.05136622238456834</v>
       </c>
       <c r="D13">
-        <v>0.1079023029251687</v>
+        <v>0.02627378009749748</v>
       </c>
       <c r="E13">
-        <v>0.1482584216911036</v>
+        <v>0.312215855344121</v>
       </c>
       <c r="F13">
-        <v>1.068534951733376</v>
+        <v>0.563859845358003</v>
       </c>
       <c r="G13">
-        <v>0.651720436183794</v>
+        <v>0.6919587016070636</v>
       </c>
       <c r="H13">
-        <v>0.7561525647435445</v>
+        <v>0.2692991171502968</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2591081131475619</v>
+        <v>0.7968132364911042</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3038925188847088</v>
+        <v>0.9326792627507245</v>
       </c>
       <c r="M13">
-        <v>17.68510266560077</v>
+        <v>61.26483047449716</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.806560667355711</v>
+        <v>1.988937522146131</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2104283419113386</v>
+        <v>0.04565392594666706</v>
       </c>
       <c r="D14">
-        <v>0.108391310851772</v>
+        <v>0.02508088491817162</v>
       </c>
       <c r="E14">
-        <v>0.1478716339943702</v>
+        <v>0.3010123943686622</v>
       </c>
       <c r="F14">
-        <v>1.074491689470776</v>
+        <v>0.5358592412921723</v>
       </c>
       <c r="G14">
-        <v>0.6546777352422311</v>
+        <v>0.6619314005632475</v>
       </c>
       <c r="H14">
-        <v>0.7592501106450698</v>
+        <v>0.2596203148826817</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2571553743478034</v>
+        <v>0.7697834344050563</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3004951981750992</v>
+        <v>0.9063306081238096</v>
       </c>
       <c r="M14">
-        <v>17.3964979688871</v>
+        <v>59.74938083965139</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.819218342665692</v>
+        <v>1.90478524398165</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2115366819537723</v>
+        <v>0.04238332889886021</v>
       </c>
       <c r="D15">
-        <v>0.108692996273291</v>
+        <v>0.02440548301825629</v>
       </c>
       <c r="E15">
-        <v>0.1476385539029863</v>
+        <v>0.2944013140818811</v>
       </c>
       <c r="F15">
-        <v>1.078174712396255</v>
+        <v>0.5195428173183743</v>
       </c>
       <c r="G15">
-        <v>0.6565148184352836</v>
+        <v>0.6442638341920741</v>
       </c>
       <c r="H15">
-        <v>0.7611643151192311</v>
+        <v>0.2540037357810405</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2559654470877746</v>
+        <v>0.7537735626534356</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2984175952995827</v>
+        <v>0.8906230598281724</v>
       </c>
       <c r="M15">
-        <v>17.21967725761499</v>
+        <v>58.83944124752361</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.827060939022516</v>
+        <v>1.855431067618213</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2180059319145133</v>
+        <v>0.02661378803571823</v>
       </c>
       <c r="D16">
-        <v>0.1104546739433943</v>
+        <v>0.02125019905697201</v>
       </c>
       <c r="E16">
-        <v>0.146360991517696</v>
+        <v>0.2597577832906737</v>
       </c>
       <c r="F16">
-        <v>1.099803322401115</v>
+        <v>0.4370151941186933</v>
       </c>
       <c r="G16">
-        <v>0.6674322363309955</v>
+        <v>0.5525543392267878</v>
       </c>
       <c r="H16">
-        <v>0.7723909777404572</v>
+        <v>0.2259398340667502</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2492397055779492</v>
+        <v>0.66907575799803</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2865621643597365</v>
+        <v>0.806164364034629</v>
       </c>
       <c r="M16">
-        <v>16.20571111070853</v>
+        <v>53.86093463723586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.873363971608768</v>
+        <v>1.601466273023959</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2220787378908593</v>
+        <v>0.0191350752120687</v>
       </c>
       <c r="D17">
-        <v>0.1115645236992222</v>
+        <v>0.01983880959931383</v>
       </c>
       <c r="E17">
-        <v>0.1456283577197226</v>
+        <v>0.240870238401385</v>
       </c>
       <c r="F17">
-        <v>1.113534094591898</v>
+        <v>0.394588568445883</v>
       </c>
       <c r="G17">
-        <v>0.6744739668517923</v>
+        <v>0.5034212640883595</v>
       </c>
       <c r="H17">
-        <v>0.7795060859307483</v>
+        <v>0.2118236416566219</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2451952941782025</v>
+        <v>0.6222556246624862</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2793332855356994</v>
+        <v>0.7583907774986187</v>
       </c>
       <c r="M17">
-        <v>15.58303467738915</v>
+        <v>50.9785807809825</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.902972325673801</v>
+        <v>1.467279586778943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2244591883632641</v>
+        <v>0.01549477150862932</v>
       </c>
       <c r="D18">
-        <v>0.1122135074801776</v>
+        <v>0.01918371419359488</v>
       </c>
       <c r="E18">
-        <v>0.1452254542252334</v>
+        <v>0.230708725696374</v>
       </c>
       <c r="F18">
-        <v>1.121599961183563</v>
+        <v>0.3726888598538309</v>
       </c>
       <c r="G18">
-        <v>0.6786492715534962</v>
+        <v>0.4773364202110315</v>
       </c>
       <c r="H18">
-        <v>0.7836816630338177</v>
+        <v>0.2046574321204133</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2428984285612046</v>
+        <v>0.5968501794746288</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2751912299590202</v>
+        <v>0.7321066179421223</v>
       </c>
       <c r="M18">
-        <v>15.22463842385133</v>
+        <v>49.37154474476114</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.920440064187545</v>
+        <v>1.396708750141926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2252716374733446</v>
+        <v>0.01436455970130046</v>
       </c>
       <c r="D19">
-        <v>0.1124350606765958</v>
+        <v>0.01898606672176228</v>
       </c>
       <c r="E19">
-        <v>0.1450921859565923</v>
+        <v>0.2273759626166481</v>
       </c>
       <c r="F19">
-        <v>1.124359676848506</v>
+        <v>0.3656640650784695</v>
       </c>
       <c r="G19">
-        <v>0.680084307708853</v>
+        <v>0.4688434638788976</v>
       </c>
       <c r="H19">
-        <v>0.7851096667319268</v>
+        <v>0.2023802107983386</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2421257365457024</v>
+        <v>0.5884821105937306</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2737914803823571</v>
+        <v>0.7233900139023319</v>
       </c>
       <c r="M19">
-        <v>15.10324756344653</v>
+        <v>48.83520838286358</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.926429128266648</v>
+        <v>1.373845863460957</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2216412516024544</v>
+        <v>0.01985995293999765</v>
       </c>
       <c r="D20">
-        <v>0.1114452767547363</v>
+        <v>0.01997214704688588</v>
       </c>
       <c r="E20">
-        <v>0.1457044278448762</v>
+        <v>0.2428049751003059</v>
       </c>
       <c r="F20">
-        <v>1.112054976935561</v>
+        <v>0.3988359854683523</v>
       </c>
       <c r="G20">
-        <v>0.6737113845968423</v>
+        <v>0.5084178024478376</v>
       </c>
       <c r="H20">
-        <v>0.778740050746535</v>
+        <v>0.2132240731005055</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2456227749350717</v>
+        <v>0.6270749493065324</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2801011679217424</v>
+        <v>0.7633472120314906</v>
       </c>
       <c r="M20">
-        <v>15.64934514350733</v>
+        <v>51.27991559934969</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.899775059452367</v>
+        <v>1.480853982077036</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2098989605222439</v>
+        <v>0.04728272337079131</v>
       </c>
       <c r="D21">
-        <v>0.1082472280690823</v>
+        <v>0.02541938050282866</v>
       </c>
       <c r="E21">
-        <v>0.1479844412499602</v>
+        <v>0.3042490481453299</v>
       </c>
       <c r="F21">
-        <v>1.072734883788996</v>
+        <v>0.5439047380253896</v>
       </c>
       <c r="G21">
-        <v>0.6538037509078549</v>
+        <v>0.6705957263881999</v>
       </c>
       <c r="H21">
-        <v>0.7583367676183457</v>
+        <v>0.2623963925612856</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2577276491907128</v>
+        <v>0.7776051374044926</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.301492372328994</v>
+        <v>0.9139769251084289</v>
       </c>
       <c r="M21">
-        <v>17.48127683314266</v>
+        <v>60.19056419236455</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.815481820563832</v>
+        <v>1.929033129183495</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2025703106068164</v>
+        <v>0.07504565245879746</v>
       </c>
       <c r="D22">
-        <v>0.1062533260714531</v>
+        <v>0.03136030379075549</v>
       </c>
       <c r="E22">
-        <v>0.1496455649023005</v>
+        <v>0.3552222098002034</v>
       </c>
       <c r="F22">
-        <v>1.048569963187688</v>
+        <v>0.6747363243713949</v>
       </c>
       <c r="G22">
-        <v>0.6419372503052472</v>
+        <v>0.807872012969014</v>
       </c>
       <c r="H22">
-        <v>0.7457553963112815</v>
+        <v>0.3080066807570461</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.265913872165001</v>
+        <v>0.8995046056530782</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3156218395873225</v>
+        <v>1.030992059077448</v>
       </c>
       <c r="M22">
-        <v>18.67663252436517</v>
+        <v>66.80193129468068</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.764381307020443</v>
+        <v>2.316530413914677</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2064497179124736</v>
+        <v>0.05904780762171491</v>
       </c>
       <c r="D23">
-        <v>0.1073086284999931</v>
+        <v>0.02790112447016924</v>
       </c>
       <c r="E23">
-        <v>0.1487430273722978</v>
+        <v>0.3267016786495844</v>
       </c>
       <c r="F23">
-        <v>1.061325280012191</v>
+        <v>0.6006535653035883</v>
       </c>
       <c r="G23">
-        <v>0.6481644359218848</v>
+        <v>0.7309121642790615</v>
       </c>
       <c r="H23">
-        <v>0.7524007507230124</v>
+        <v>0.2820839386304641</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2615188979006291</v>
+        <v>0.8315837476697396</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3080666130599639</v>
+        <v>0.9662729947100672</v>
       </c>
       <c r="M23">
-        <v>18.038808568028</v>
+        <v>63.17743703359162</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.791285057404991</v>
+        <v>2.098572285122998</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2218389179560081</v>
+        <v>0.01953021563302393</v>
       </c>
       <c r="D24">
-        <v>0.1114991543135133</v>
+        <v>0.01991138652206104</v>
       </c>
       <c r="E24">
-        <v>0.1456699796182974</v>
+        <v>0.2419281474899435</v>
       </c>
       <c r="F24">
-        <v>1.11272315109391</v>
+        <v>0.3969080842729014</v>
       </c>
       <c r="G24">
-        <v>0.6740557530419977</v>
+        <v>0.5061522344630589</v>
       </c>
       <c r="H24">
-        <v>0.7790861106191898</v>
+        <v>0.2125880239042885</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2454294228194982</v>
+        <v>0.6248915067048415</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2797539650174485</v>
+        <v>0.7611027946378925</v>
       </c>
       <c r="M24">
-        <v>15.61936746602532</v>
+        <v>51.14352901381903</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.901219156883201</v>
+        <v>1.474696826073114</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2398822515964127</v>
+        <v>0.001987583682145022</v>
       </c>
       <c r="D25">
-        <v>0.1164247746180322</v>
+        <v>0.01724795993340322</v>
       </c>
       <c r="E25">
-        <v>0.1430586731072836</v>
+        <v>0.1771413672559774</v>
       </c>
       <c r="F25">
-        <v>1.174578481603895</v>
+        <v>0.2719182514354372</v>
       </c>
       <c r="G25">
-        <v>0.7067487000100101</v>
+        <v>0.3460472498149159</v>
       </c>
       <c r="H25">
-        <v>0.8110424122885433</v>
+        <v>0.1737041857219594</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2291902623309028</v>
+        <v>0.4597955165347827</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2498142609829159</v>
+        <v>0.5851209517251448</v>
       </c>
       <c r="M25">
-        <v>12.99993745599107</v>
+        <v>40.09007713024931</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.036486409104583</v>
+        <v>1.051946387307737</v>
       </c>
     </row>
   </sheetData>
